--- a/biology/Neurosciences/Lily_Jan/Lily_Jan.xlsx
+++ b/biology/Neurosciences/Lily_Jan/Lily_Jan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lily Yeh Jan (nom chinois Ye Gongzhu 葉公杼), née le 20 janvier 1947 à Fuzhou, est une neuroscientifique américaine d'origine taïwanaise, professeure de « physiologie moléculaire Jack and DeLoris Lange » à l'université de Californie à San Francisco.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lily Jan naît à Fuzhou en Chine, ses parents sont comptables. En 1949 sa famille s'enfuit à Taïwan[1].
-Elle a étudié à l'université nationale de Taïwan où elle a obtenu une licence de physique en 1968. Elle a ensuite poursuivi ses études à Caltech en physique théorique, puis s'est tournée vers la biologie. Son directeur de thèse, Max Delbrück, lauréat du prix Nobel en 1969, est également un physicien qui plus tard a étudié la biologie. Après avoir obtenu son diplôme en 1974, elle a suivi des formations post-doctorales à Caltech sous la direction de Seymour Benzer puis à l'École médicale de Harvard sous celle de Steven Kuffler[2]. Elle est chercheuse au Howard Hughes Medical Institute (HHMI) depuis 1984.
-Son mari a également étudié la physique à l'université nationale de Taïwan avant d'aller à Caltech, où, d'abord étudiant en physique, il est passé à la biologie[2]. Ils se sont mariés en 1971[3]. Ils étaient dans le même laboratoire à Caltech durant leurs études, ont fait leurs post-doctorats ensemble, et ont remporté plusieurs prix ensemble. Ils ont rejoint en 1979 le corps professoral de université de Californie à San Francisco (UCSF) où ils ont mis en place un laboratoire commun[4]. Ils ont un fils, Max, et une fille, Emily[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lily Jan naît à Fuzhou en Chine, ses parents sont comptables. En 1949 sa famille s'enfuit à Taïwan.
+Elle a étudié à l'université nationale de Taïwan où elle a obtenu une licence de physique en 1968. Elle a ensuite poursuivi ses études à Caltech en physique théorique, puis s'est tournée vers la biologie. Son directeur de thèse, Max Delbrück, lauréat du prix Nobel en 1969, est également un physicien qui plus tard a étudié la biologie. Après avoir obtenu son diplôme en 1974, elle a suivi des formations post-doctorales à Caltech sous la direction de Seymour Benzer puis à l'École médicale de Harvard sous celle de Steven Kuffler. Elle est chercheuse au Howard Hughes Medical Institute (HHMI) depuis 1984.
+Son mari a également étudié la physique à l'université nationale de Taïwan avant d'aller à Caltech, où, d'abord étudiant en physique, il est passé à la biologie. Ils se sont mariés en 1971. Ils étaient dans le même laboratoire à Caltech durant leurs études, ont fait leurs post-doctorats ensemble, et ont remporté plusieurs prix ensemble. Ils ont rejoint en 1979 le corps professoral de université de Californie à San Francisco (UCSF) où ils ont mis en place un laboratoire commun. Ils ont un fils, Max, et une fille, Emily.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Élu membre de l'Académie nationale des sciences des États-Unis (1996)
 Élu membre de l'Academia Sinica, Taiwan (1998)
